--- a/custom_terms.xlsx
+++ b/custom_terms.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="180">
   <si>
     <t>Source</t>
   </si>
@@ -36,6 +36,537 @@
   </si>
   <si>
     <t>Explain(Optional)</t>
+  </si>
+  <si>
+    <t>ICT</t>
+  </si>
+  <si>
+    <t>market structure shift</t>
+  </si>
+  <si>
+    <t>市场结构转变</t>
+  </si>
+  <si>
+    <t>MSS</t>
+  </si>
+  <si>
+    <t>break of structure</t>
+  </si>
+  <si>
+    <t>结构突破</t>
+  </si>
+  <si>
+    <t>BOS</t>
+  </si>
+  <si>
+    <t>short term high</t>
+  </si>
+  <si>
+    <t>短期高点</t>
+  </si>
+  <si>
+    <t>STH</t>
+  </si>
+  <si>
+    <t>short term low</t>
+  </si>
+  <si>
+    <t>短期低点</t>
+  </si>
+  <si>
+    <t>STL</t>
+  </si>
+  <si>
+    <t>intermediate term high</t>
+  </si>
+  <si>
+    <t>中期高点</t>
+  </si>
+  <si>
+    <t>ITH</t>
+  </si>
+  <si>
+    <t>intermediate term low</t>
+  </si>
+  <si>
+    <t>中期低点</t>
+  </si>
+  <si>
+    <t>ITL</t>
+  </si>
+  <si>
+    <t>long term high</t>
+  </si>
+  <si>
+    <t>长期高点</t>
+  </si>
+  <si>
+    <t>LTH</t>
+  </si>
+  <si>
+    <t>long term low</t>
+  </si>
+  <si>
+    <t>长期低点</t>
+  </si>
+  <si>
+    <t>LTL</t>
+  </si>
+  <si>
+    <t>buy-side liquidity</t>
+  </si>
+  <si>
+    <t>买方流动性</t>
+  </si>
+  <si>
+    <t>BSL</t>
+  </si>
+  <si>
+    <t>sell-side liquidity</t>
+  </si>
+  <si>
+    <t>卖方流动性</t>
+  </si>
+  <si>
+    <t>SSL</t>
+  </si>
+  <si>
+    <t>relatively equal highs</t>
+  </si>
+  <si>
+    <t>相对等高点</t>
+  </si>
+  <si>
+    <t>REH</t>
+  </si>
+  <si>
+    <t>relatively equal lows</t>
+  </si>
+  <si>
+    <t>相对等低点</t>
+  </si>
+  <si>
+    <t>REL</t>
+  </si>
+  <si>
+    <t>previous day high</t>
+  </si>
+  <si>
+    <t>前一天高点</t>
+  </si>
+  <si>
+    <t>PDH</t>
+  </si>
+  <si>
+    <t>previous day low</t>
+  </si>
+  <si>
+    <t>前一天低点</t>
+  </si>
+  <si>
+    <t>PDL</t>
+  </si>
+  <si>
+    <t>previous week high</t>
+  </si>
+  <si>
+    <t>前一周高点</t>
+  </si>
+  <si>
+    <t>PWH</t>
+  </si>
+  <si>
+    <t>previous week low</t>
+  </si>
+  <si>
+    <t>前一周低点</t>
+  </si>
+  <si>
+    <t>PWL</t>
+  </si>
+  <si>
+    <t>inducement</t>
+  </si>
+  <si>
+    <t>诱因</t>
+  </si>
+  <si>
+    <t>IDM</t>
+  </si>
+  <si>
+    <t>fair value gap</t>
+  </si>
+  <si>
+    <t>公允价值缺口</t>
+  </si>
+  <si>
+    <t>FVG</t>
+  </si>
+  <si>
+    <t>buy-side imbalance</t>
+  </si>
+  <si>
+    <t>买方失衡</t>
+  </si>
+  <si>
+    <t>sell-side inefficiency</t>
+  </si>
+  <si>
+    <t>卖方低效</t>
+  </si>
+  <si>
+    <t>sell-side imbalance</t>
+  </si>
+  <si>
+    <t>卖方失衡</t>
+  </si>
+  <si>
+    <t>buy-side inefficiency</t>
+  </si>
+  <si>
+    <t>买方低效</t>
+  </si>
+  <si>
+    <t>order block</t>
+  </si>
+  <si>
+    <t>订单块</t>
+  </si>
+  <si>
+    <t>OB</t>
+  </si>
+  <si>
+    <t>breaker block/breaker</t>
+  </si>
+  <si>
+    <t>突破块</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>mitigation block</t>
+  </si>
+  <si>
+    <t>缓解块</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>rejection block</t>
+  </si>
+  <si>
+    <t>拒绝块</t>
+  </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>volume imbalance</t>
+  </si>
+  <si>
+    <t>成交量失衡</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>market maker buy model</t>
+  </si>
+  <si>
+    <t>做市商买入模型</t>
+  </si>
+  <si>
+    <t>MMBM</t>
+  </si>
+  <si>
+    <t>market maker sell model</t>
+  </si>
+  <si>
+    <t>做市商卖出模型</t>
+  </si>
+  <si>
+    <t>MMSM</t>
+  </si>
+  <si>
+    <t>consequent encroachment</t>
+  </si>
+  <si>
+    <t>缺口中点</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>mean threshold</t>
+  </si>
+  <si>
+    <t>均值阈值</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>smart money technique</t>
+  </si>
+  <si>
+    <t>SMT</t>
+  </si>
+  <si>
+    <t>术语不译</t>
+  </si>
+  <si>
+    <t>institutional order flow</t>
+  </si>
+  <si>
+    <t>机构订单流</t>
+  </si>
+  <si>
+    <t>IOF</t>
+  </si>
+  <si>
+    <t>draw on liquidity</t>
+  </si>
+  <si>
+    <t>流动性吸引</t>
+  </si>
+  <si>
+    <t>DOL</t>
+  </si>
+  <si>
+    <t>point of interest</t>
+  </si>
+  <si>
+    <t>POI</t>
+  </si>
+  <si>
+    <t>power of three</t>
+  </si>
+  <si>
+    <t>PO3</t>
+  </si>
+  <si>
+    <t>accumulation</t>
+  </si>
+  <si>
+    <t>盘整</t>
+  </si>
+  <si>
+    <t>manipulation</t>
+  </si>
+  <si>
+    <t>操纵</t>
+  </si>
+  <si>
+    <t>distribution</t>
+  </si>
+  <si>
+    <t>派发</t>
+  </si>
+  <si>
+    <t>optimal trade entry</t>
+  </si>
+  <si>
+    <t>最佳交易入场点</t>
+  </si>
+  <si>
+    <t>OTE</t>
+  </si>
+  <si>
+    <t>midnight opening price</t>
+  </si>
+  <si>
+    <t>午夜开盘价</t>
+  </si>
+  <si>
+    <t>MOP</t>
+  </si>
+  <si>
+    <t>higher time frame</t>
+  </si>
+  <si>
+    <t>高时间周期</t>
+  </si>
+  <si>
+    <t>HTF</t>
+  </si>
+  <si>
+    <t>lower time frame</t>
+  </si>
+  <si>
+    <t>低时间周期</t>
+  </si>
+  <si>
+    <t>LTF</t>
+  </si>
+  <si>
+    <t>standard deviation</t>
+  </si>
+  <si>
+    <t>标准差</t>
+  </si>
+  <si>
+    <t>STDV</t>
+  </si>
+  <si>
+    <t>open high low close</t>
+  </si>
+  <si>
+    <t>OHLC</t>
+  </si>
+  <si>
+    <t>london open kill zone</t>
+  </si>
+  <si>
+    <t>伦敦开盘杀戮区</t>
+  </si>
+  <si>
+    <t>LOKZ</t>
+  </si>
+  <si>
+    <t>london close kill zone</t>
+  </si>
+  <si>
+    <t>伦敦收盘杀戮区</t>
+  </si>
+  <si>
+    <t>LCKZ</t>
+  </si>
+  <si>
+    <t>new york open kill zone</t>
+  </si>
+  <si>
+    <t>纽约开盘杀戮区</t>
+  </si>
+  <si>
+    <t>NYOKZ</t>
+  </si>
+  <si>
+    <t>PD Array</t>
+  </si>
+  <si>
+    <t>PD 区域</t>
+  </si>
+  <si>
+    <t>premium</t>
+  </si>
+  <si>
+    <t>溢价</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>折价</t>
+  </si>
+  <si>
+    <t>stop hunt</t>
+  </si>
+  <si>
+    <t>止损猎杀</t>
+  </si>
+  <si>
+    <t>liquidity pool</t>
+  </si>
+  <si>
+    <t>流动性池</t>
+  </si>
+  <si>
+    <t>BPR</t>
+  </si>
+  <si>
+    <t>价格平衡区间</t>
+  </si>
+  <si>
+    <t>swing low</t>
+  </si>
+  <si>
+    <t>摆动低点</t>
+  </si>
+  <si>
+    <t>swing high</t>
+  </si>
+  <si>
+    <t>摆动高点</t>
+  </si>
+  <si>
+    <t>daily bias</t>
+  </si>
+  <si>
+    <t>每日偏见</t>
+  </si>
+  <si>
+    <t>bias</t>
+  </si>
+  <si>
+    <t>偏见</t>
+  </si>
+  <si>
+    <t>double purge</t>
+  </si>
+  <si>
+    <t>双重清洗</t>
+  </si>
+  <si>
+    <t>failure swing</t>
+  </si>
+  <si>
+    <t>失败摆动</t>
+  </si>
+  <si>
+    <t>ment blocks</t>
+  </si>
+  <si>
+    <t>MBs</t>
+  </si>
+  <si>
+    <t>mentfx block</t>
+  </si>
+  <si>
+    <t>validated Ment block</t>
+  </si>
+  <si>
+    <t>已验证 MB</t>
+  </si>
+  <si>
+    <t>bullish Ment block</t>
+  </si>
+  <si>
+    <t>看涨 MB</t>
+  </si>
+  <si>
+    <t>EVC</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>Axis Circle</t>
+  </si>
+  <si>
+    <t>Axis system</t>
+  </si>
+  <si>
+    <t>Axis 系统</t>
+  </si>
+  <si>
+    <t>expansion</t>
+  </si>
+  <si>
+    <t>扩张</t>
+  </si>
+  <si>
+    <t>Marcell</t>
+  </si>
+  <si>
+    <t>minus 0.27</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>积累-操纵-派发</t>
   </si>
 </sst>
 </file>
@@ -912,7 +1443,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{CB3BB329-D340-4F11-B6F6-6CD85F254356}">
+    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{B28E39D7-8B71-462F-9B49-CD05319B4065}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -921,7 +1452,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{F5927B29-E009-4E28-B5F3-180F4A9AB80C}">
+    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{9C348754-8554-434C-A731-D7D1FFCDE705}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1152,10 +1683,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81666666666667" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1177,6 +1708,739 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>142</v>
+      </c>
+      <c r="B53" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>144</v>
+      </c>
+      <c r="B54" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>146</v>
+      </c>
+      <c r="B55" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>148</v>
+      </c>
+      <c r="B56" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>152</v>
+      </c>
+      <c r="B58" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>154</v>
+      </c>
+      <c r="B59" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>156</v>
+      </c>
+      <c r="B60" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>158</v>
+      </c>
+      <c r="B61" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>160</v>
+      </c>
+      <c r="B62" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>162</v>
+      </c>
+      <c r="B63" t="s">
+        <v>163</v>
+      </c>
+      <c r="C63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>165</v>
+      </c>
+      <c r="B66" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>167</v>
+      </c>
+      <c r="B67" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>169</v>
+      </c>
+      <c r="B68" t="s">
+        <v>169</v>
+      </c>
+      <c r="C68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>170</v>
+      </c>
+      <c r="B69" t="s">
+        <v>170</v>
+      </c>
+      <c r="C69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>171</v>
+      </c>
+      <c r="B70" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>174</v>
+      </c>
+      <c r="B72" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>176</v>
+      </c>
+      <c r="B73" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>177</v>
+      </c>
+      <c r="B74">
+        <v>-0.27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>178</v>
+      </c>
+      <c r="B75" t="s">
+        <v>178</v>
+      </c>
+      <c r="C75" t="s">
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>

--- a/custom_terms.xlsx
+++ b/custom_terms.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="668">
   <si>
     <t>Source</t>
   </si>
@@ -36,6 +36,2118 @@
   </si>
   <si>
     <t>Explain(Optional)</t>
+  </si>
+  <si>
+    <t>SOP (Surface OPerator)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>几何体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表面算子</t>
+    </r>
+  </si>
+  <si>
+    <t>用于创建和修改几何体（点、线、面）的节点上下文。</t>
+  </si>
+  <si>
+    <t>DOP (Dynamic OPerator)</t>
+  </si>
+  <si>
+    <t>动力学算子</t>
+  </si>
+  <si>
+    <t>用于物理仿真（流体、刚体、布料等）的节点上下文。</t>
+  </si>
+  <si>
+    <t>VOP (VEX OPerator)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">VEX </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>算子</t>
+    </r>
+  </si>
+  <si>
+    <t>使用可视化节点构建 VEX 脚本的上下文，常用于材质和几何体处理。</t>
+  </si>
+  <si>
+    <t>LOP (Lighting OPerator)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>灯光</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>渲染算子</t>
+    </r>
+  </si>
+  <si>
+    <t>基于 USD (Universal Scene Description) 的场景组装、灯光和渲染上下文。</t>
+  </si>
+  <si>
+    <t>CHOP (CHannel OPerator)</t>
+  </si>
+  <si>
+    <t>通道算子</t>
+  </si>
+  <si>
+    <t>用于处理动画曲线、音频信号和运动数据的上下文。</t>
+  </si>
+  <si>
+    <t>ROP (Render OPerator)</t>
+  </si>
+  <si>
+    <t>渲染输出算子</t>
+  </si>
+  <si>
+    <t>用于设置渲染参数并输出图像或几何体序列的上下文。</t>
+  </si>
+  <si>
+    <t>COP (Composite OPerator)</t>
+  </si>
+  <si>
+    <t>合成算子</t>
+  </si>
+  <si>
+    <t>Houdini 内置的图像处理和合成上下文。</t>
+  </si>
+  <si>
+    <t>TOP (Task OPerator)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>任务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工作流算子</t>
+    </r>
+  </si>
+  <si>
+    <t>基于 PDG (Procedural Dependency Graph) 的自动化工作流管理上下文。</t>
+  </si>
+  <si>
+    <t>OBJ (Object)</t>
+  </si>
+  <si>
+    <t>对象层级</t>
+  </si>
+  <si>
+    <t>场景的最高层级，用于放置摄影机、灯光和几何体容器。</t>
+  </si>
+  <si>
+    <t>SHOP (Shader OPerator)</t>
+  </si>
+  <si>
+    <t>材质算子</t>
+  </si>
+  <si>
+    <t>旧版材质系统（现多被 VOP/MatNet 取代）。</t>
+  </si>
+  <si>
+    <t>VEX (Vector Expression)</t>
+  </si>
+  <si>
+    <t>矢量表达式</t>
+  </si>
+  <si>
+    <t>Houdini 的高性能脚本语言，用于底层数据处理。</t>
+  </si>
+  <si>
+    <t>HDA (Houdini Digital Asset)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Houdini </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数字资产</t>
+    </r>
+  </si>
+  <si>
+    <t>将节点网络封装成可重复使用的自定义工具。</t>
+  </si>
+  <si>
+    <t>Shelf Tools</t>
+  </si>
+  <si>
+    <t>工具架工具</t>
+  </si>
+  <si>
+    <t>位于界面顶部的快捷工具按钮。</t>
+  </si>
+  <si>
+    <t>Network Editor</t>
+  </si>
+  <si>
+    <t>节点网络编辑器</t>
+  </si>
+  <si>
+    <t>Houdini 的核心交互界面，用于连接节点。</t>
+  </si>
+  <si>
+    <t>Parameter Interface</t>
+  </si>
+  <si>
+    <t>参数面板</t>
+  </si>
+  <si>
+    <t>用于调整选中节点属性的界面。</t>
+  </si>
+  <si>
+    <t>Viewport</t>
+  </si>
+  <si>
+    <t>视口</t>
+  </si>
+  <si>
+    <t>实时预览 3D 场景的窗口。</t>
+  </si>
+  <si>
+    <t>Scene Graph</t>
+  </si>
+  <si>
+    <t>场景图谱</t>
+  </si>
+  <si>
+    <t>LOPs 中用于展示 USD 层级结构的视图。</t>
+  </si>
+  <si>
+    <t>Context Switching</t>
+  </si>
+  <si>
+    <t>上下文切换</t>
+  </si>
+  <si>
+    <t>在不同的算子网络（如从 SOP 进入 DOP）之间切换。</t>
+  </si>
+  <si>
+    <t>Proceduralism</t>
+  </si>
+  <si>
+    <t>程序化</t>
+  </si>
+  <si>
+    <t>基于规则和算法而非手动操作的创作方式。</t>
+  </si>
+  <si>
+    <t>Dependency Graph</t>
+  </si>
+  <si>
+    <t>依赖图</t>
+  </si>
+  <si>
+    <t>决定节点计算顺序的逻辑结构。</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>点</t>
+  </si>
+  <si>
+    <t>空间中的 3D 坐标位置。</t>
+  </si>
+  <si>
+    <t>Vertex</t>
+  </si>
+  <si>
+    <t>顶点</t>
+  </si>
+  <si>
+    <t>引用点并包含面信息的单元（一个点可被多个顶点引用）。</t>
+  </si>
+  <si>
+    <t>Primitive</t>
+  </si>
+  <si>
+    <t>元始体/面</t>
+  </si>
+  <si>
+    <t>几何体的基本单元，如多边形面、球体、体积等。</t>
+  </si>
+  <si>
+    <t>Detail</t>
+  </si>
+  <si>
+    <t>细节/全局</t>
+  </si>
+  <si>
+    <t>存储在整个几何体对象上的全局属性。</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>属性</t>
+  </si>
+  <si>
+    <t>存储在点、顶点、面或全局上的数据（如 P, Cd, N）。</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>组</t>
+  </si>
+  <si>
+    <t>几何体元素的子集，用于局部操作。</t>
+  </si>
+  <si>
+    <t>Normal (N)</t>
+  </si>
+  <si>
+    <t>法线</t>
+  </si>
+  <si>
+    <t>决定表面朝向和光照反射方向的矢量。</t>
+  </si>
+  <si>
+    <t>Velocity (v)</t>
+  </si>
+  <si>
+    <t>速度</t>
+  </si>
+  <si>
+    <t>描述元素运动方向和快慢的属性。</t>
+  </si>
+  <si>
+    <t>Color (Cd)</t>
+  </si>
+  <si>
+    <t>漫反射颜色</t>
+  </si>
+  <si>
+    <t>存储在几何体上的颜色信息。</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>透明度</t>
+  </si>
+  <si>
+    <t>存储在几何体上的透明度信息。</t>
+  </si>
+  <si>
+    <t>UV Mapping</t>
+  </si>
+  <si>
+    <t>UV 映射</t>
+  </si>
+  <si>
+    <t>将 3D 表面展开到 2D 平面以进行贴图。</t>
+  </si>
+  <si>
+    <t>Wrangle</t>
+  </si>
+  <si>
+    <t>代码块节点</t>
+  </si>
+  <si>
+    <t>使用 VEX 代码直接操作属性的节点（如 Point Wrangle）。</t>
+  </si>
+  <si>
+    <t>Scatter</t>
+  </si>
+  <si>
+    <t>散布</t>
+  </si>
+  <si>
+    <t>在表面或体积内随机生成点。</t>
+  </si>
+  <si>
+    <t>Copy to Points</t>
+  </si>
+  <si>
+    <t>拷贝至点</t>
+  </si>
+  <si>
+    <t>将一个几何体实例拷贝到目标点云上。</t>
+  </si>
+  <si>
+    <t>Instancing</t>
+  </si>
+  <si>
+    <t>实例化</t>
+  </si>
+  <si>
+    <t>渲染时重复使用同一几何体以节省内存。</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>布尔运算</t>
+  </si>
+  <si>
+    <t>通过交、并、差集操作修改几何体。</t>
+  </si>
+  <si>
+    <t>PolyReduce</t>
+  </si>
+  <si>
+    <t>多边形减面</t>
+  </si>
+  <si>
+    <t>在保持形状的同时减少模型面数。</t>
+  </si>
+  <si>
+    <t>Subdivide</t>
+  </si>
+  <si>
+    <t>细分</t>
+  </si>
+  <si>
+    <t>增加模型面数以使其平滑。</t>
+  </si>
+  <si>
+    <t>Extrude</t>
+  </si>
+  <si>
+    <t>挤出</t>
+  </si>
+  <si>
+    <t>沿法线方向拉伸面或边。</t>
+  </si>
+  <si>
+    <t>VDB</t>
+  </si>
+  <si>
+    <t>稀疏体积</t>
+  </si>
+  <si>
+    <t>一种高效的体积数据格式，常用于云、烟雾和液面。</t>
+  </si>
+  <si>
+    <t>SDF (Signed Distance Field)</t>
+  </si>
+  <si>
+    <t>有符号距离场</t>
+  </si>
+  <si>
+    <t>一种表示表面到点距离的体积场。</t>
+  </si>
+  <si>
+    <t>Fog Volume</t>
+  </si>
+  <si>
+    <t>雾体积</t>
+  </si>
+  <si>
+    <t>存储密度信息的传统体积格式。</t>
+  </si>
+  <si>
+    <t>Convert VDB</t>
+  </si>
+  <si>
+    <t>VDB 转换</t>
+  </si>
+  <si>
+    <t>在多边形和 VDB 体积之间互相转换。</t>
+  </si>
+  <si>
+    <t>Resample</t>
+  </si>
+  <si>
+    <t>重采样</t>
+  </si>
+  <si>
+    <t>改变曲线的点密度。</t>
+  </si>
+  <si>
+    <t>Fuse</t>
+  </si>
+  <si>
+    <t>合并/焊接</t>
+  </si>
+  <si>
+    <t>将距离极近的点合并为一个。</t>
+  </si>
+  <si>
+    <t>Facet</t>
+  </si>
+  <si>
+    <t>面片处理</t>
+  </si>
+  <si>
+    <t>用于统一法线、清理重叠面等。</t>
+  </si>
+  <si>
+    <t>Blast</t>
+  </si>
+  <si>
+    <t>爆破/删除</t>
+  </si>
+  <si>
+    <t>根据组或索引删除选中的几何体。</t>
+  </si>
+  <si>
+    <t>Attribute Transfer</t>
+  </si>
+  <si>
+    <t>属性传递</t>
+  </si>
+  <si>
+    <t>将一个对象的属性根据距离传递给另一个对象。</t>
+  </si>
+  <si>
+    <t>Attribute Promote</t>
+  </si>
+  <si>
+    <t>属性提升</t>
+  </si>
+  <si>
+    <t>在点、面、顶点、全局层级之间转换属性。</t>
+  </si>
+  <si>
+    <t>Attribute Randomize</t>
+  </si>
+  <si>
+    <t>属性随机化</t>
+  </si>
+  <si>
+    <t>为属性赋予随机值。</t>
+  </si>
+  <si>
+    <t>Bounding Box</t>
+  </si>
+  <si>
+    <t>包围盒</t>
+  </si>
+  <si>
+    <t>包含几何体的最小立方体范围。</t>
+  </si>
+  <si>
+    <t>Centroid</t>
+  </si>
+  <si>
+    <t>质心/中心点</t>
+  </si>
+  <si>
+    <t>几何体的几何中心。</t>
+  </si>
+  <si>
+    <t>Connectivity</t>
+  </si>
+  <si>
+    <t>连通性</t>
+  </si>
+  <si>
+    <t>根据拓扑连接情况为元素编号。</t>
+  </si>
+  <si>
+    <t>Measure</t>
+  </si>
+  <si>
+    <t>测量</t>
+  </si>
+  <si>
+    <t>计算面积、周长、曲率或体积。</t>
+  </si>
+  <si>
+    <t>Clip</t>
+  </si>
+  <si>
+    <t>裁剪</t>
+  </si>
+  <si>
+    <t>用平面切开几何体。</t>
+  </si>
+  <si>
+    <t>Mirror</t>
+  </si>
+  <si>
+    <t>镜像</t>
+  </si>
+  <si>
+    <t>沿轴线对称复制几何体。</t>
+  </si>
+  <si>
+    <t>Transform</t>
+  </si>
+  <si>
+    <t>变换</t>
+  </si>
+  <si>
+    <t>移动、旋转或缩放对象。</t>
+  </si>
+  <si>
+    <t>Pivot</t>
+  </si>
+  <si>
+    <t>轴心点</t>
+  </si>
+  <si>
+    <t>变换操作的参考中心。</t>
+  </si>
+  <si>
+    <t>Point Cloud</t>
+  </si>
+  <si>
+    <t>点云</t>
+  </si>
+  <si>
+    <t>大量离散点的集合，常用于存储空间数据。</t>
+  </si>
+  <si>
+    <t>Topology</t>
+  </si>
+  <si>
+    <t>拓扑</t>
+  </si>
+  <si>
+    <t>几何体点线面的连接结构。</t>
+  </si>
+  <si>
+    <t>Solver</t>
+  </si>
+  <si>
+    <t>解算器</t>
+  </si>
+  <si>
+    <t>动力学系统的核心，负责计算每一帧的状态。</t>
+  </si>
+  <si>
+    <t>RBD (Rigid Body Dynamics)</t>
+  </si>
+  <si>
+    <t>刚体动力学</t>
+  </si>
+  <si>
+    <t>模拟不发生形变的物体碰撞。</t>
+  </si>
+  <si>
+    <t>Bullet Solver</t>
+  </si>
+  <si>
+    <t>Bullet 解算器</t>
+  </si>
+  <si>
+    <t>一种极速的工业级刚体碰撞解算引擎。</t>
+  </si>
+  <si>
+    <t>FLIP (Fluid Implicit Particle)</t>
+  </si>
+  <si>
+    <t>混合流体解算</t>
+  </si>
+  <si>
+    <t>结合粒子和网格优势的液体仿真技术。</t>
+  </si>
+  <si>
+    <t>Pyro Solver</t>
+  </si>
+  <si>
+    <t>烟火解算器</t>
+  </si>
+  <si>
+    <t>用于模拟烟雾、火焰、爆炸的体积解算器。</t>
+  </si>
+  <si>
+    <t>Vellum</t>
+  </si>
+  <si>
+    <t>柔体/布料系统</t>
+  </si>
+  <si>
+    <t>基于位置的动力学 (PBD) 系统，用于布料、毛发、软体。</t>
+  </si>
+  <si>
+    <t>Constraint</t>
+  </si>
+  <si>
+    <t>约束</t>
+  </si>
+  <si>
+    <t>限制物体间相对运动的逻辑连接。</t>
+  </si>
+  <si>
+    <t>Glue Constraint</t>
+  </si>
+  <si>
+    <t>粘连约束</t>
+  </si>
+  <si>
+    <t>使刚体碎块在受力前保持一体。</t>
+  </si>
+  <si>
+    <t>Hard/Soft Constraint</t>
+  </si>
+  <si>
+    <t>硬/软约束</t>
+  </si>
+  <si>
+    <t>模拟刚性连接或弹簧类连接。</t>
+  </si>
+  <si>
+    <t>Collision Object</t>
+  </si>
+  <si>
+    <t>碰撞体</t>
+  </si>
+  <si>
+    <t>参与动力学交互的静态或动态物体。</t>
+  </si>
+  <si>
+    <t>Substeps</t>
+  </si>
+  <si>
+    <t>子步/子帧</t>
+  </si>
+  <si>
+    <t>在两帧之间增加计算次数以提高仿真精度。</t>
+  </si>
+  <si>
+    <t>Time Steps</t>
+  </si>
+  <si>
+    <t>时间步长</t>
+  </si>
+  <si>
+    <t>解算器计算的时间间隔。</t>
+  </si>
+  <si>
+    <t>Particle (POP)</t>
+  </si>
+  <si>
+    <t>粒子</t>
+  </si>
+  <si>
+    <t>动力学系统中最基本的动力单元。</t>
+  </si>
+  <si>
+    <t>Advection</t>
+  </si>
+  <si>
+    <t>平流/推移</t>
+  </si>
+  <si>
+    <t>场（如速度场）带动粒子或流体运动的过程。</t>
+  </si>
+  <si>
+    <t>Divergence</t>
+  </si>
+  <si>
+    <t>散度</t>
+  </si>
+  <si>
+    <t>描述流体膨胀或收缩的属性。</t>
+  </si>
+  <si>
+    <t>Vorticity</t>
+  </si>
+  <si>
+    <t>涡度</t>
+  </si>
+  <si>
+    <t>描述流体旋转和细节湍流的属性。</t>
+  </si>
+  <si>
+    <t>Viscosity</t>
+  </si>
+  <si>
+    <t>粘度</t>
+  </si>
+  <si>
+    <t>流体抵抗流动的程度（如蜂蜜的高粘度）。</t>
+  </si>
+  <si>
+    <t>Surface Tension</t>
+  </si>
+  <si>
+    <t>表面张力</t>
+  </si>
+  <si>
+    <t>液体表面收缩的物理特性。</t>
+  </si>
+  <si>
+    <t>Buoyancy</t>
+  </si>
+  <si>
+    <t>浮力</t>
+  </si>
+  <si>
+    <t>烟雾或热空气上升的动力。</t>
+  </si>
+  <si>
+    <t>Dissipation</t>
+  </si>
+  <si>
+    <t>消散</t>
+  </si>
+  <si>
+    <t>烟雾随时间变淡消失的过程。</t>
+  </si>
+  <si>
+    <t>Disturbance</t>
+  </si>
+  <si>
+    <t>扰动</t>
+  </si>
+  <si>
+    <t>为流体增加细小的随机湍流。</t>
+  </si>
+  <si>
+    <t>Shredding</t>
+  </si>
+  <si>
+    <t>撕裂</t>
+  </si>
+  <si>
+    <t>破坏火焰或烟雾边缘使其更具细节。</t>
+  </si>
+  <si>
+    <t>Fracture</t>
+  </si>
+  <si>
+    <t>破碎</t>
+  </si>
+  <si>
+    <t>将完整物体切割成碎块的过程。</t>
+  </si>
+  <si>
+    <t>Voronoi Fracture</t>
+  </si>
+  <si>
+    <t>泰森多边形破碎</t>
+  </si>
+  <si>
+    <t>基于点分布的常用破碎算法。</t>
+  </si>
+  <si>
+    <t>Boolean Fracture</t>
+  </si>
+  <si>
+    <t>布尔破碎</t>
+  </si>
+  <si>
+    <t>使用几何体切割实现的更真实的破碎。</t>
+  </si>
+  <si>
+    <t>Active/Static State</t>
+  </si>
+  <si>
+    <t>激活/静态状态</t>
+  </si>
+  <si>
+    <t>决定物体是否受动力学影响。</t>
+  </si>
+  <si>
+    <t>Initial State</t>
+  </si>
+  <si>
+    <t>初始状态</t>
+  </si>
+  <si>
+    <t>仿真开始时的第一帧状态。</t>
+  </si>
+  <si>
+    <t>Cache</t>
+  </si>
+  <si>
+    <t>缓存</t>
+  </si>
+  <si>
+    <t>将仿真结果存储到磁盘以供回放和渲染。</t>
+  </si>
+  <si>
+    <t>Sim Time vs Real Time</t>
+  </si>
+  <si>
+    <t>仿真时间与真实时间</t>
+  </si>
+  <si>
+    <t>仿真计算耗时与实际播放时间的区别。</t>
+  </si>
+  <si>
+    <t>Micro-solver</t>
+  </si>
+  <si>
+    <t>微解算器</t>
+  </si>
+  <si>
+    <t>DOP 中用于构建复杂解算逻辑的底层原子节点。</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>场</t>
+  </si>
+  <si>
+    <t>空间中连续分布的数据（如 Scalar Field 标量场）。</t>
+  </si>
+  <si>
+    <t>Vector Field</t>
+  </si>
+  <si>
+    <t>矢量场</t>
+  </si>
+  <si>
+    <t>空间中每个点都有方向和大小的场（如速度场）。</t>
+  </si>
+  <si>
+    <t>Emitter</t>
+  </si>
+  <si>
+    <t>发射器</t>
+  </si>
+  <si>
+    <t>产生粒子或流体的源头。</t>
+  </si>
+  <si>
+    <t>Sink</t>
+  </si>
+  <si>
+    <t>吸收器/消减区</t>
+  </si>
+  <si>
+    <t>移除粒子或流体的区域。</t>
+  </si>
+  <si>
+    <t>Collision Detection</t>
+  </si>
+  <si>
+    <t>碰撞检测</t>
+  </si>
+  <si>
+    <t>计算物体是否接触的算法。</t>
+  </si>
+  <si>
+    <t>Friction</t>
+  </si>
+  <si>
+    <t>摩擦力</t>
+  </si>
+  <si>
+    <t>物体接触时阻碍相对运动的力。</t>
+  </si>
+  <si>
+    <t>Bounce/Restitution</t>
+  </si>
+  <si>
+    <t>弹性/恢复系数</t>
+  </si>
+  <si>
+    <t>物体碰撞后的反弹程度。</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>质量</t>
+  </si>
+  <si>
+    <t>物体的惯性大小。</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>密度</t>
+  </si>
+  <si>
+    <t>单位体积的质量或浓度。</t>
+  </si>
+  <si>
+    <t>Drag</t>
+  </si>
+  <si>
+    <t>阻力</t>
+  </si>
+  <si>
+    <t>空气或流体对运动物体的阻碍。</t>
+  </si>
+  <si>
+    <t>Gravity</t>
+  </si>
+  <si>
+    <t>重力</t>
+  </si>
+  <si>
+    <t>模拟地球引力的力场。</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>风力</t>
+  </si>
+  <si>
+    <t>模拟空气流动的力场。</t>
+  </si>
+  <si>
+    <t>Turbulence</t>
+  </si>
+  <si>
+    <t>湍流</t>
+  </si>
+  <si>
+    <t>随机且不规则的力场波动。</t>
+  </si>
+  <si>
+    <t>Noise</t>
+  </si>
+  <si>
+    <t>噪声</t>
+  </si>
+  <si>
+    <t>用于产生随机变化的数学函数（如 Perlin Noise）。</t>
+  </si>
+  <si>
+    <t>Damping</t>
+  </si>
+  <si>
+    <t>阻尼</t>
+  </si>
+  <si>
+    <t>能量随时间衰减的过程。</t>
+  </si>
+  <si>
+    <t>Cloth</t>
+  </si>
+  <si>
+    <t>布料</t>
+  </si>
+  <si>
+    <t>模拟纤维织物的物理特性。</t>
+  </si>
+  <si>
+    <t>Hair/Grooming</t>
+  </si>
+  <si>
+    <t>毛发/理毛</t>
+  </si>
+  <si>
+    <t>模拟头发、皮毛的生长和动力学。</t>
+  </si>
+  <si>
+    <t>FEM (Finite Element Method)</t>
+  </si>
+  <si>
+    <t>有限元法</t>
+  </si>
+  <si>
+    <t>用于极高质量软体形变仿真的算法。</t>
+  </si>
+  <si>
+    <t>PBD (Position Based Dynamics)</t>
+  </si>
+  <si>
+    <t>基于位置的动力学</t>
+  </si>
+  <si>
+    <t>Vellum 背后的核心算法，稳定且快速。</t>
+  </si>
+  <si>
+    <t>SPH (Smoothed Particle Hydrodynamics)</t>
+  </si>
+  <si>
+    <t>平滑粒子流体动力学</t>
+  </si>
+  <si>
+    <t>一种基于粒子的流体模拟方法。</t>
+  </si>
+  <si>
+    <t>Whitewater</t>
+  </si>
+  <si>
+    <t>白水/浪花</t>
+  </si>
+  <si>
+    <t>液体仿真中产生的泡沫、喷溅和雾气。</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>浮点数</t>
+  </si>
+  <si>
+    <t>存储带小数点的数值（如 1.23）。</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>整数</t>
+  </si>
+  <si>
+    <t>存储不带小数的数值（如 5）。</t>
+  </si>
+  <si>
+    <t>Vector</t>
+  </si>
+  <si>
+    <t>矢量</t>
+  </si>
+  <si>
+    <t>存储三个数值的集合，常表示位置、方向或颜色。</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>字符串</t>
+  </si>
+  <si>
+    <t>存储文本信息（如 "smoke_layer"）。</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>数组</t>
+  </si>
+  <si>
+    <t>存储相同类型数据的有序列表。</t>
+  </si>
+  <si>
+    <t>Dictionary</t>
+  </si>
+  <si>
+    <t>字典</t>
+  </si>
+  <si>
+    <t>存储键值对的数据结构。</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>矩阵</t>
+  </si>
+  <si>
+    <t>用于描述旋转、缩放和位移的数学阵列。</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>函数</t>
+  </si>
+  <si>
+    <t>执行特定任务的可重用代码块。</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>变量</t>
+  </si>
+  <si>
+    <t>用于存储临时数据的容器。</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>表达式</t>
+  </si>
+  <si>
+    <t>返回单个值的数学或逻辑组合。</t>
+  </si>
+  <si>
+    <t>fit()</t>
+  </si>
+  <si>
+    <t>映射函数</t>
+  </si>
+  <si>
+    <t>将数值从一个范围映射到另一个范围。</t>
+  </si>
+  <si>
+    <t>lerp()</t>
+  </si>
+  <si>
+    <t>线性插值</t>
+  </si>
+  <si>
+    <t>在两个值之间根据比例进行平滑过渡。</t>
+  </si>
+  <si>
+    <t>normalize()</t>
+  </si>
+  <si>
+    <t>归一化</t>
+  </si>
+  <si>
+    <t>将矢量的长度缩放为 1，仅保留方向。</t>
+  </si>
+  <si>
+    <t>length()</t>
+  </si>
+  <si>
+    <t>长度</t>
+  </si>
+  <si>
+    <t>计算矢量的模长。</t>
+  </si>
+  <si>
+    <t>distance()</t>
+  </si>
+  <si>
+    <t>距离</t>
+  </si>
+  <si>
+    <t>计算两个点之间的空间距离。</t>
+  </si>
+  <si>
+    <t>dot()</t>
+  </si>
+  <si>
+    <t>点积</t>
+  </si>
+  <si>
+    <t>计算两个矢量的投影关系，常用于计算夹角。</t>
+  </si>
+  <si>
+    <t>cross()</t>
+  </si>
+  <si>
+    <t>叉积</t>
+  </si>
+  <si>
+    <t>计算垂直于两个矢量的第三个矢量。</t>
+  </si>
+  <si>
+    <t>ch() / chf() / chi()</t>
+  </si>
+  <si>
+    <t>通道引用</t>
+  </si>
+  <si>
+    <t>在代码中引用 UI 界面上的参数。</t>
+  </si>
+  <si>
+    <t>getbbox()</t>
+  </si>
+  <si>
+    <t>获取包围盒</t>
+  </si>
+  <si>
+    <t>在代码中查询几何体的尺寸信息。</t>
+  </si>
+  <si>
+    <t>nearpoint()</t>
+  </si>
+  <si>
+    <t>最近点查询</t>
+  </si>
+  <si>
+    <t>查找距离给定位置最近的点索引。</t>
+  </si>
+  <si>
+    <t>pcopen()</t>
+  </si>
+  <si>
+    <t>开启点云</t>
+  </si>
+  <si>
+    <t>打开点云文件或几何体以进行邻域查询。</t>
+  </si>
+  <si>
+    <t>pcfilter()</t>
+  </si>
+  <si>
+    <t>点云过滤</t>
+  </si>
+  <si>
+    <t>对点云查询结果进行平滑或加权平均。</t>
+  </si>
+  <si>
+    <t>random()</t>
+  </si>
+  <si>
+    <t>随机数</t>
+  </si>
+  <si>
+    <t>根据种子值生成 0 到 1 之间的伪随机数。</t>
+  </si>
+  <si>
+    <t>noise()</t>
+  </si>
+  <si>
+    <t>噪声函数</t>
+  </si>
+  <si>
+    <t>生成连续平滑的随机波动。</t>
+  </si>
+  <si>
+    <t>rint()</t>
+  </si>
+  <si>
+    <t>取整</t>
+  </si>
+  <si>
+    <t>将浮点数四舍五入为最接近的整数。</t>
+  </si>
+  <si>
+    <t>floor() / ceil()</t>
+  </si>
+  <si>
+    <t>向下/向上取整</t>
+  </si>
+  <si>
+    <t>获取不大于/不小于当前值的整数。</t>
+  </si>
+  <si>
+    <t>abs()</t>
+  </si>
+  <si>
+    <t>绝对值</t>
+  </si>
+  <si>
+    <t>获取数值的正值。</t>
+  </si>
+  <si>
+    <t>sin() / cos() / tan()</t>
+  </si>
+  <si>
+    <t>三角函数</t>
+  </si>
+  <si>
+    <t>用于处理周期性波动和旋转。</t>
+  </si>
+  <si>
+    <t>pow()</t>
+  </si>
+  <si>
+    <t>幂运算</t>
+  </si>
+  <si>
+    <t>计算底数的指数次方。</t>
+  </si>
+  <si>
+    <t>exp() / log()</t>
+  </si>
+  <si>
+    <t>指数与对数</t>
+  </si>
+  <si>
+    <t>用于非线性缩放和数学计算。</t>
+  </si>
+  <si>
+    <t>USD (Universal Scene Description)</t>
+  </si>
+  <si>
+    <t>通用场景描述</t>
+  </si>
+  <si>
+    <t>由 Pixar 开发的用于高效交换 3D 场景的数据格式。</t>
+  </si>
+  <si>
+    <t>Solaris</t>
+  </si>
+  <si>
+    <t>Solaris 模块</t>
+  </si>
+  <si>
+    <t>Houdini 中基于 USD 的布局、灯光和渲染环境。</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>舞台</t>
+  </si>
+  <si>
+    <t>USD 场景的顶层容器。</t>
+  </si>
+  <si>
+    <t>Layer</t>
+  </si>
+  <si>
+    <t>层</t>
+  </si>
+  <si>
+    <t>USD 的组成单位，支持非破坏性的层级叠加。</t>
+  </si>
+  <si>
+    <t>Prim (Primitive)</t>
+  </si>
+  <si>
+    <t>原始对象</t>
+  </si>
+  <si>
+    <t>USD 中的基本节点单元（如 Xform, Mesh, Light）。</t>
+  </si>
+  <si>
+    <t>Composition</t>
+  </si>
+  <si>
+    <t>组合</t>
+  </si>
+  <si>
+    <t>将多个 USD 层合并为一个完整场景的过程。</t>
+  </si>
+  <si>
+    <t>Opinion</t>
+  </si>
+  <si>
+    <t>观点/属性值</t>
+  </si>
+  <si>
+    <t>不同层对同一属性的设定，遵循强度顺序。</t>
+  </si>
+  <si>
+    <t>Variant</t>
+  </si>
+  <si>
+    <t>变体</t>
+  </si>
+  <si>
+    <t>在同一个 USD 对象中存储多种状态（如不同颜色或模型）。</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>引用</t>
+  </si>
+  <si>
+    <t>将外部 USD 文件引入当前场景。</t>
+  </si>
+  <si>
+    <t>Payload</t>
+  </si>
+  <si>
+    <t>负载</t>
+  </si>
+  <si>
+    <t>延迟加载的引用，用于优化大型场景的性能。</t>
+  </si>
+  <si>
+    <t>Hydra</t>
+  </si>
+  <si>
+    <t>Hydra 渲染委托</t>
+  </si>
+  <si>
+    <t>USD 的渲染架构，允许在不同渲染器间切换。</t>
+  </si>
+  <si>
+    <t>Karma</t>
+  </si>
+  <si>
+    <t>Karma 渲染器</t>
+  </si>
+  <si>
+    <t>Houdini 现代的、基于 CPU/GPU 的物理渲染器。</t>
+  </si>
+  <si>
+    <t>Mantra</t>
+  </si>
+  <si>
+    <t>Mantra 渲染器</t>
+  </si>
+  <si>
+    <t>Houdini 经典的基于微多边形的渲染器。</t>
+  </si>
+  <si>
+    <t>MaterialX</t>
+  </si>
+  <si>
+    <t>用于描述材质和着色网络的开放标准。</t>
+  </si>
+  <si>
+    <t>Shader</t>
+  </si>
+  <si>
+    <t>着色器</t>
+  </si>
+  <si>
+    <t>决定物体表面如何与光线交互的程序。</t>
+  </si>
+  <si>
+    <t>PBR (Physically Based Rendering)</t>
+  </si>
+  <si>
+    <t>基于物理的渲染</t>
+  </si>
+  <si>
+    <t>模拟真实世界光影规律的渲染技术。</t>
+  </si>
+  <si>
+    <t>Ray Tracing</t>
+  </si>
+  <si>
+    <t>光线追踪</t>
+  </si>
+  <si>
+    <t>通过追踪光线路径计算阴影、反射和折射。</t>
+  </si>
+  <si>
+    <t>Global Illumination (GI)</t>
+  </si>
+  <si>
+    <t>全局光照</t>
+  </si>
+  <si>
+    <t>模拟光线在物体间的多次反弹。</t>
+  </si>
+  <si>
+    <t>Ambient Occlusion (AO)</t>
+  </si>
+  <si>
+    <t>环境光遮蔽</t>
+  </si>
+  <si>
+    <t>模拟物体缝隙处的阴影细节。</t>
+  </si>
+  <si>
+    <t>Subsurface Scattering (SSS)</t>
+  </si>
+  <si>
+    <t>次表面散射</t>
+  </si>
+  <si>
+    <t>模拟光线进入半透明物体（如皮肤、玉石）内部的散射。</t>
+  </si>
+  <si>
+    <t>Caustics</t>
+  </si>
+  <si>
+    <t>焦散</t>
+  </si>
+  <si>
+    <t>光线经透明物体折射或反射后形成的汇聚光斑。</t>
+  </si>
+  <si>
+    <t>AOV (Arbitrary Output Variable)</t>
+  </si>
+  <si>
+    <t>渲染层/通道</t>
+  </si>
+  <si>
+    <t>渲染输出的特定成分（如深度、法线、直接光）。</t>
+  </si>
+  <si>
+    <t>LPE (Light Path Expression)</t>
+  </si>
+  <si>
+    <t>光路表达式</t>
+  </si>
+  <si>
+    <t>使用正则表达式提取特定的光线路径。</t>
+  </si>
+  <si>
+    <t>Motion Blur</t>
+  </si>
+  <si>
+    <t>运动模糊</t>
+  </si>
+  <si>
+    <t>模拟摄影机快门开启期间物体运动产生的模糊。</t>
+  </si>
+  <si>
+    <t>Depth of Field (DOF)</t>
+  </si>
+  <si>
+    <t>景深</t>
+  </si>
+  <si>
+    <t>模拟镜头对焦产生的背景虚化效果。</t>
+  </si>
+  <si>
+    <t>Sampling</t>
+  </si>
+  <si>
+    <t>采样</t>
+  </si>
+  <si>
+    <t>决定渲染质量和噪声水平的关键参数。</t>
+  </si>
+  <si>
+    <t>Denoising</t>
+  </si>
+  <si>
+    <t>去噪</t>
+  </si>
+  <si>
+    <t>使用算法移除渲染图像中的颗粒噪声。</t>
+  </si>
+  <si>
+    <t>HDR (High Dynamic Range)</t>
+  </si>
+  <si>
+    <t>高动态范围</t>
+  </si>
+  <si>
+    <t>包含极高亮度范围的图像格式，常用于环境照明。</t>
+  </si>
+  <si>
+    <t>ACES</t>
+  </si>
+  <si>
+    <t>学院颜色编码系统</t>
+  </si>
+  <si>
+    <t>工业标准的色彩管理流程。</t>
+  </si>
+  <si>
+    <t>Linear Workflow</t>
+  </si>
+  <si>
+    <t>线性工作流</t>
+  </si>
+  <si>
+    <t>在线性色彩空间中进行计算以保证物理正确。</t>
+  </si>
+  <si>
+    <t>Pre-production</t>
+  </si>
+  <si>
+    <t>前期制作</t>
+  </si>
+  <si>
+    <t>剧本、分镜、概念设计等准备阶段。</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>中期拍摄/制作</t>
+  </si>
+  <si>
+    <t>实际拍摄或核心资产制作阶段。</t>
+  </si>
+  <si>
+    <t>Post-production</t>
+  </si>
+  <si>
+    <t>后期制作</t>
+  </si>
+  <si>
+    <t>剪辑、特效、合成、调色阶段。</t>
+  </si>
+  <si>
+    <t>Pre-viz (Pre-visualization)</t>
+  </si>
+  <si>
+    <t>前期可视化</t>
+  </si>
+  <si>
+    <t>使用低模制作的动态分镜，用于规划拍摄。</t>
+  </si>
+  <si>
+    <t>Post-viz</t>
+  </si>
+  <si>
+    <t>后期可视化</t>
+  </si>
+  <si>
+    <t>在实拍素材上快速添加粗略特效以辅助剪辑。</t>
+  </si>
+  <si>
+    <t>Layout</t>
+  </si>
+  <si>
+    <t>布局/场布</t>
+  </si>
+  <si>
+    <t>在 3D 空间中放置资产并设置摄影机轨迹。</t>
+  </si>
+  <si>
+    <t>Matchmove / Tracking</t>
+  </si>
+  <si>
+    <t>运动匹配/反求</t>
+  </si>
+  <si>
+    <t>将实拍镜头的摄影机运动还原到 3D 空间。</t>
+  </si>
+  <si>
+    <t>Rotoscoping (Roto)</t>
+  </si>
+  <si>
+    <t>抠像/遮罩绘制</t>
+  </si>
+  <si>
+    <t>手工绘制遮罩以分离实拍素材中的元素。</t>
+  </si>
+  <si>
+    <t>Compositing (Comp)</t>
+  </si>
+  <si>
+    <t>合成</t>
+  </si>
+  <si>
+    <t>将多个渲染层和实拍素材融合为最终画面的过程。</t>
+  </si>
+  <si>
+    <t>Matte Painting</t>
+  </si>
+  <si>
+    <t>数字绘景</t>
+  </si>
+  <si>
+    <t>绘制复杂的背景环境以替代实拍场景。</t>
+  </si>
+  <si>
+    <t>Lookdev (Look Development)</t>
+  </si>
+  <si>
+    <t>材质开发</t>
+  </si>
+  <si>
+    <t>确定资产在不同光照下的视觉表现。</t>
+  </si>
+  <si>
+    <t>Rigging</t>
+  </si>
+  <si>
+    <t>绑定</t>
+  </si>
+  <si>
+    <t>为模型添加骨骼和控制系统以进行动画。</t>
+  </si>
+  <si>
+    <t>Skinning</t>
+  </si>
+  <si>
+    <t>蒙皮</t>
+  </si>
+  <si>
+    <t>将模型顶点关联到骨骼上的过程。</t>
+  </si>
+  <si>
+    <t>Retopology</t>
+  </si>
+  <si>
+    <t>重拓扑</t>
+  </si>
+  <si>
+    <t>将高模转换为适合动画和渲染的低模。</t>
+  </si>
+  <si>
+    <t>Baking</t>
+  </si>
+  <si>
+    <t>烘焙</t>
+  </si>
+  <si>
+    <t>将复杂计算结果（如法线、光照）存储到贴图或点云中。</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>资产</t>
+  </si>
+  <si>
+    <t>特效流程中可重复使用的模型、材质或工具。</t>
+  </si>
+  <si>
+    <t>Shot</t>
+  </si>
+  <si>
+    <t>镜头</t>
+  </si>
+  <si>
+    <t>电影中最小的连续影像单位。</t>
+  </si>
+  <si>
+    <t>Sequence</t>
+  </si>
+  <si>
+    <t>序列</t>
+  </si>
+  <si>
+    <t>由多个相关镜头组成的片段。</t>
+  </si>
+  <si>
+    <t>Dailies</t>
+  </si>
+  <si>
+    <t>审片/日报</t>
+  </si>
+  <si>
+    <t>每日展示制作进度并获取反馈的会议。</t>
+  </si>
+  <si>
+    <t>Turnaround</t>
+  </si>
+  <si>
+    <t>旋转展示</t>
+  </si>
+  <si>
+    <t>360 度展示资产细节的视频。</t>
+  </si>
+  <si>
+    <t>Plate</t>
+  </si>
+  <si>
+    <t>底片/实拍素材</t>
+  </si>
+  <si>
+    <t>摄影机直接拍摄的原始画面。</t>
+  </si>
+  <si>
+    <t>Deep Compositing</t>
+  </si>
+  <si>
+    <t>深度合成</t>
+  </si>
+  <si>
+    <t>包含深度信息的合成技术，解决复杂的遮挡问题。</t>
+  </si>
+  <si>
+    <t>Motion Capture (Mocap)</t>
+  </si>
+  <si>
+    <t>动作捕捉</t>
+  </si>
+  <si>
+    <t>记录真人演员动作并应用到 3D 角色的技术。</t>
+  </si>
+  <si>
+    <t>Pipeline</t>
+  </si>
+  <si>
+    <t>流水线/管线</t>
+  </si>
+  <si>
+    <t>特效制作的自动化流程和工具链。</t>
+  </si>
+  <si>
+    <t>Farm (Render Farm)</t>
+  </si>
+  <si>
+    <t>渲染农场</t>
+  </si>
+  <si>
+    <t>大规模并行计算集群，用于处理繁重的渲染任务。</t>
+  </si>
+  <si>
+    <t>Proxy</t>
+  </si>
+  <si>
+    <t>代理</t>
+  </si>
+  <si>
+    <t>用于加速视口显示的低精度替代模型。</t>
+  </si>
+  <si>
+    <t>LOD (Level of Detail)</t>
+  </si>
+  <si>
+    <t>细节分级</t>
+  </si>
+  <si>
+    <t>根据距离自动切换不同精度的模型以优化性能。</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t>仿真/模拟</t>
+  </si>
+  <si>
+    <t>使用物理算法生成动态效果的过程。</t>
+  </si>
+  <si>
+    <t>Technical Director (TD)</t>
+  </si>
+  <si>
+    <t>技术总监</t>
+  </si>
+  <si>
+    <t>负责解决流程中的技术难题或开发工具的职位。</t>
+  </si>
+  <si>
+    <t>VFX Supervisor</t>
+  </si>
+  <si>
+    <t>特效总监</t>
+  </si>
+  <si>
+    <t>负责整个项目视觉效果质量和技术方案的负责人。</t>
+  </si>
+  <si>
+    <t>Reel / Showreel</t>
+  </si>
+  <si>
+    <t>作品集</t>
+  </si>
+  <si>
+    <t>展示个人或公司过往作品的精华剪辑。</t>
+  </si>
+  <si>
+    <t>Breakdown</t>
+  </si>
+  <si>
+    <t>拆解视频</t>
+  </si>
+  <si>
+    <t>展示特效镜头制作层级和过程的视频。</t>
+  </si>
+  <si>
+    <t>Over-the-shoulder (OTS)</t>
+  </si>
+  <si>
+    <t>过肩镜头</t>
+  </si>
+  <si>
+    <t>常见的摄影机机位术语。</t>
+  </si>
+  <si>
+    <t>Focal Length</t>
+  </si>
+  <si>
+    <t>焦距</t>
+  </si>
+  <si>
+    <t>决定摄影机视野范围的关键参数。</t>
+  </si>
+  <si>
+    <t>Frame Rate (FPS)</t>
+  </si>
+  <si>
+    <t>帧率</t>
+  </si>
+  <si>
+    <t>每秒播放的静态图像数量。</t>
+  </si>
+  <si>
+    <t>Resolution</t>
+  </si>
+  <si>
+    <t>分辨率</t>
+  </si>
+  <si>
+    <t>图像的像素尺寸（如 1920x1080）。</t>
+  </si>
+  <si>
+    <t>Aspect Ratio</t>
+  </si>
+  <si>
+    <t>宽高比</t>
+  </si>
+  <si>
+    <t>画面宽度与高度的比例（如 16:9）。</t>
+  </si>
+  <si>
+    <t>Parallax</t>
+  </si>
+  <si>
+    <t>视差</t>
+  </si>
+  <si>
+    <t>观察位置改变时物体相对位移的现象。</t>
+  </si>
+  <si>
+    <t>Artifact</t>
+  </si>
+  <si>
+    <t>伪影/瑕疵</t>
+  </si>
+  <si>
+    <t>渲染或处理过程中产生的非预期错误痕迹。</t>
+  </si>
+  <si>
+    <t>Deadlines</t>
+  </si>
+  <si>
+    <t>截止日期</t>
+  </si>
+  <si>
+    <t>项目必须交付的时间节点。</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>评审</t>
+  </si>
+  <si>
+    <t>对制作内容进行审核和修改建议的过程。</t>
+  </si>
+  <si>
+    <t>Iteration</t>
+  </si>
+  <si>
+    <t>迭代</t>
+  </si>
+  <si>
+    <t>对效果进行反复修改和优化的过程。</t>
+  </si>
+  <si>
+    <t>Scalability</t>
+  </si>
+  <si>
+    <t>可扩展性</t>
+  </si>
+  <si>
+    <t>系统处理更大规模数据或更复杂任务的能力。</t>
+  </si>
+  <si>
+    <t>Optimization</t>
+  </si>
+  <si>
+    <t>优化</t>
+  </si>
+  <si>
+    <t>在保证质量的前提下减少计算时间和资源消耗。</t>
+  </si>
+  <si>
+    <t>Workflow</t>
+  </si>
+  <si>
+    <t>工作流</t>
+  </si>
+  <si>
+    <t>完成特定任务的具体步骤和方法。</t>
+  </si>
+  <si>
+    <t>OpenVDB</t>
+  </si>
+  <si>
+    <t>开源体积数据库</t>
+  </si>
+  <si>
+    <t>工业标准的稀疏体积数据存储库。</t>
+  </si>
+  <si>
+    <t>Alembic (.abc)</t>
+  </si>
+  <si>
+    <t>Alembic 格式</t>
+  </si>
+  <si>
+    <t>工业标准的几何体缓存交换格式。</t>
+  </si>
+  <si>
+    <t>FBX</t>
+  </si>
+  <si>
+    <t>FBX 格式</t>
+  </si>
+  <si>
+    <t>常用于模型、骨骼和动画交换的通用格式。</t>
+  </si>
+  <si>
+    <t>EXR (.exr)</t>
+  </si>
+  <si>
+    <t>OpenEXR 格式</t>
+  </si>
+  <si>
+    <t>工业标准的高动态范围多通道图像格式。</t>
+  </si>
+  <si>
+    <t>OCIO (OpenColorIO)</t>
+  </si>
+  <si>
+    <t>开源色彩管理</t>
+  </si>
+  <si>
+    <t>工业标准的色彩管理方案。</t>
+  </si>
+  <si>
+    <t>Houdini is hip</t>
+  </si>
+  <si>
+    <t>Houdini 超酷炫</t>
+  </si>
+  <si>
+    <t>课程名</t>
   </si>
 </sst>
 </file>
@@ -48,13 +2160,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -192,6 +2310,18 @@
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -388,12 +2518,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -514,16 +2659,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -532,46 +2674,49 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
@@ -580,10 +2725,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
@@ -592,10 +2737,10 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
@@ -604,10 +2749,10 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
@@ -616,10 +2761,10 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
@@ -628,10 +2773,10 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
@@ -640,13 +2785,16 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -912,7 +3060,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{AD434D0A-1DF6-4BFD-B31D-182FFE0870D8}">
+    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{66A697E5-8105-4278-B55F-34BDC7BF4BDC}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -921,7 +3069,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{6C1C25F5-422A-482F-9536-03B625A6A853}">
+    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{99C3B9FF-2CDF-463D-B675-0643457D1AC7}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1152,10 +3300,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A75" sqref="$A2:$XFD75"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="C223" sqref="C223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81666666666667" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1177,6 +3325,2448 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="1:3">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>177</v>
+      </c>
+      <c r="B60" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>189</v>
+      </c>
+      <c r="B64" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>192</v>
+      </c>
+      <c r="B65" t="s">
+        <v>193</v>
+      </c>
+      <c r="C65" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>195</v>
+      </c>
+      <c r="B66" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67" t="s">
+        <v>199</v>
+      </c>
+      <c r="C67" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>201</v>
+      </c>
+      <c r="B68" t="s">
+        <v>202</v>
+      </c>
+      <c r="C68" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>204</v>
+      </c>
+      <c r="B69" t="s">
+        <v>205</v>
+      </c>
+      <c r="C69" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>207</v>
+      </c>
+      <c r="B70" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>210</v>
+      </c>
+      <c r="B71" t="s">
+        <v>211</v>
+      </c>
+      <c r="C71" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>213</v>
+      </c>
+      <c r="B72" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>216</v>
+      </c>
+      <c r="B73" t="s">
+        <v>217</v>
+      </c>
+      <c r="C73" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>219</v>
+      </c>
+      <c r="B74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C74" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>222</v>
+      </c>
+      <c r="B75" t="s">
+        <v>223</v>
+      </c>
+      <c r="C75" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>225</v>
+      </c>
+      <c r="B76" t="s">
+        <v>226</v>
+      </c>
+      <c r="C76" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>228</v>
+      </c>
+      <c r="B77" t="s">
+        <v>229</v>
+      </c>
+      <c r="C77" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>231</v>
+      </c>
+      <c r="B78" t="s">
+        <v>232</v>
+      </c>
+      <c r="C78" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>234</v>
+      </c>
+      <c r="B79" t="s">
+        <v>235</v>
+      </c>
+      <c r="C79" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>237</v>
+      </c>
+      <c r="B80" t="s">
+        <v>238</v>
+      </c>
+      <c r="C80" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>240</v>
+      </c>
+      <c r="B81" t="s">
+        <v>241</v>
+      </c>
+      <c r="C81" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>243</v>
+      </c>
+      <c r="B82" t="s">
+        <v>244</v>
+      </c>
+      <c r="C82" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>246</v>
+      </c>
+      <c r="B83" t="s">
+        <v>247</v>
+      </c>
+      <c r="C83" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>249</v>
+      </c>
+      <c r="B84" t="s">
+        <v>250</v>
+      </c>
+      <c r="C84" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>252</v>
+      </c>
+      <c r="B85" t="s">
+        <v>253</v>
+      </c>
+      <c r="C85" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>255</v>
+      </c>
+      <c r="B86" t="s">
+        <v>256</v>
+      </c>
+      <c r="C86" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>258</v>
+      </c>
+      <c r="B87" t="s">
+        <v>259</v>
+      </c>
+      <c r="C87" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>261</v>
+      </c>
+      <c r="B88" t="s">
+        <v>262</v>
+      </c>
+      <c r="C88" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>264</v>
+      </c>
+      <c r="B89" t="s">
+        <v>265</v>
+      </c>
+      <c r="C89" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>267</v>
+      </c>
+      <c r="B90" t="s">
+        <v>268</v>
+      </c>
+      <c r="C90" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>270</v>
+      </c>
+      <c r="B91" t="s">
+        <v>271</v>
+      </c>
+      <c r="C91" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>273</v>
+      </c>
+      <c r="B92" t="s">
+        <v>274</v>
+      </c>
+      <c r="C92" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>276</v>
+      </c>
+      <c r="B93" t="s">
+        <v>277</v>
+      </c>
+      <c r="C93" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>279</v>
+      </c>
+      <c r="B94" t="s">
+        <v>280</v>
+      </c>
+      <c r="C94" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>282</v>
+      </c>
+      <c r="B95" t="s">
+        <v>283</v>
+      </c>
+      <c r="C95" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>285</v>
+      </c>
+      <c r="B96" t="s">
+        <v>286</v>
+      </c>
+      <c r="C96" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>288</v>
+      </c>
+      <c r="B97" t="s">
+        <v>289</v>
+      </c>
+      <c r="C97" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>291</v>
+      </c>
+      <c r="B98" t="s">
+        <v>292</v>
+      </c>
+      <c r="C98" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>294</v>
+      </c>
+      <c r="B99" t="s">
+        <v>295</v>
+      </c>
+      <c r="C99" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>297</v>
+      </c>
+      <c r="B100" t="s">
+        <v>298</v>
+      </c>
+      <c r="C100" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>300</v>
+      </c>
+      <c r="B101" t="s">
+        <v>301</v>
+      </c>
+      <c r="C101" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>303</v>
+      </c>
+      <c r="B102" t="s">
+        <v>304</v>
+      </c>
+      <c r="C102" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>306</v>
+      </c>
+      <c r="B103" t="s">
+        <v>307</v>
+      </c>
+      <c r="C103" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>309</v>
+      </c>
+      <c r="B104" t="s">
+        <v>310</v>
+      </c>
+      <c r="C104" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>312</v>
+      </c>
+      <c r="B105" t="s">
+        <v>313</v>
+      </c>
+      <c r="C105" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>315</v>
+      </c>
+      <c r="B106" t="s">
+        <v>316</v>
+      </c>
+      <c r="C106" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>318</v>
+      </c>
+      <c r="B107" t="s">
+        <v>319</v>
+      </c>
+      <c r="C107" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>321</v>
+      </c>
+      <c r="B108" t="s">
+        <v>322</v>
+      </c>
+      <c r="C108" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>324</v>
+      </c>
+      <c r="B109" t="s">
+        <v>325</v>
+      </c>
+      <c r="C109" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>327</v>
+      </c>
+      <c r="B110" t="s">
+        <v>328</v>
+      </c>
+      <c r="C110" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>330</v>
+      </c>
+      <c r="B111" t="s">
+        <v>331</v>
+      </c>
+      <c r="C111" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>333</v>
+      </c>
+      <c r="B112" t="s">
+        <v>334</v>
+      </c>
+      <c r="C112" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>336</v>
+      </c>
+      <c r="B113" t="s">
+        <v>337</v>
+      </c>
+      <c r="C113" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>339</v>
+      </c>
+      <c r="B114" t="s">
+        <v>340</v>
+      </c>
+      <c r="C114" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>342</v>
+      </c>
+      <c r="B115" t="s">
+        <v>343</v>
+      </c>
+      <c r="C115" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>345</v>
+      </c>
+      <c r="B116" t="s">
+        <v>346</v>
+      </c>
+      <c r="C116" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>348</v>
+      </c>
+      <c r="B117" t="s">
+        <v>349</v>
+      </c>
+      <c r="C117" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>351</v>
+      </c>
+      <c r="B118" t="s">
+        <v>352</v>
+      </c>
+      <c r="C118" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>354</v>
+      </c>
+      <c r="B119" t="s">
+        <v>355</v>
+      </c>
+      <c r="C119" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>357</v>
+      </c>
+      <c r="B120" t="s">
+        <v>358</v>
+      </c>
+      <c r="C120" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>360</v>
+      </c>
+      <c r="B121" t="s">
+        <v>361</v>
+      </c>
+      <c r="C121" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>363</v>
+      </c>
+      <c r="B122" t="s">
+        <v>364</v>
+      </c>
+      <c r="C122" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>366</v>
+      </c>
+      <c r="B123" t="s">
+        <v>367</v>
+      </c>
+      <c r="C123" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>369</v>
+      </c>
+      <c r="B124" t="s">
+        <v>370</v>
+      </c>
+      <c r="C124" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>372</v>
+      </c>
+      <c r="B125" t="s">
+        <v>373</v>
+      </c>
+      <c r="C125" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>375</v>
+      </c>
+      <c r="B126" t="s">
+        <v>376</v>
+      </c>
+      <c r="C126" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>378</v>
+      </c>
+      <c r="B127" t="s">
+        <v>379</v>
+      </c>
+      <c r="C127" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>381</v>
+      </c>
+      <c r="B128" t="s">
+        <v>382</v>
+      </c>
+      <c r="C128" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>384</v>
+      </c>
+      <c r="B129" t="s">
+        <v>385</v>
+      </c>
+      <c r="C129" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>387</v>
+      </c>
+      <c r="B130" t="s">
+        <v>388</v>
+      </c>
+      <c r="C130" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>390</v>
+      </c>
+      <c r="B131" t="s">
+        <v>391</v>
+      </c>
+      <c r="C131" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>393</v>
+      </c>
+      <c r="B132" t="s">
+        <v>394</v>
+      </c>
+      <c r="C132" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>396</v>
+      </c>
+      <c r="B133" t="s">
+        <v>397</v>
+      </c>
+      <c r="C133" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>399</v>
+      </c>
+      <c r="B134" t="s">
+        <v>400</v>
+      </c>
+      <c r="C134" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>402</v>
+      </c>
+      <c r="B135" t="s">
+        <v>403</v>
+      </c>
+      <c r="C135" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>405</v>
+      </c>
+      <c r="B136" t="s">
+        <v>406</v>
+      </c>
+      <c r="C136" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>408</v>
+      </c>
+      <c r="B137" t="s">
+        <v>409</v>
+      </c>
+      <c r="C137" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>411</v>
+      </c>
+      <c r="B138" t="s">
+        <v>412</v>
+      </c>
+      <c r="C138" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>414</v>
+      </c>
+      <c r="B139" t="s">
+        <v>415</v>
+      </c>
+      <c r="C139" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>417</v>
+      </c>
+      <c r="B140" t="s">
+        <v>418</v>
+      </c>
+      <c r="C140" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>420</v>
+      </c>
+      <c r="B141" t="s">
+        <v>421</v>
+      </c>
+      <c r="C141" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>423</v>
+      </c>
+      <c r="B142" t="s">
+        <v>424</v>
+      </c>
+      <c r="C142" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>426</v>
+      </c>
+      <c r="B143" t="s">
+        <v>427</v>
+      </c>
+      <c r="C143" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>429</v>
+      </c>
+      <c r="B144" t="s">
+        <v>430</v>
+      </c>
+      <c r="C144" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>432</v>
+      </c>
+      <c r="B145" t="s">
+        <v>433</v>
+      </c>
+      <c r="C145" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>435</v>
+      </c>
+      <c r="B146" t="s">
+        <v>436</v>
+      </c>
+      <c r="C146" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>438</v>
+      </c>
+      <c r="B147" t="s">
+        <v>439</v>
+      </c>
+      <c r="C147" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>441</v>
+      </c>
+      <c r="B148" t="s">
+        <v>442</v>
+      </c>
+      <c r="C148" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>444</v>
+      </c>
+      <c r="B149" t="s">
+        <v>445</v>
+      </c>
+      <c r="C149" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>447</v>
+      </c>
+      <c r="B150" t="s">
+        <v>448</v>
+      </c>
+      <c r="C150" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>450</v>
+      </c>
+      <c r="B151" t="s">
+        <v>451</v>
+      </c>
+      <c r="C151" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>453</v>
+      </c>
+      <c r="B152" t="s">
+        <v>454</v>
+      </c>
+      <c r="C152" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>456</v>
+      </c>
+      <c r="B153" t="s">
+        <v>457</v>
+      </c>
+      <c r="C153" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>459</v>
+      </c>
+      <c r="B154" t="s">
+        <v>460</v>
+      </c>
+      <c r="C154" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>462</v>
+      </c>
+      <c r="B155" t="s">
+        <v>463</v>
+      </c>
+      <c r="C155" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>465</v>
+      </c>
+      <c r="B156" t="s">
+        <v>465</v>
+      </c>
+      <c r="C156" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>467</v>
+      </c>
+      <c r="B157" t="s">
+        <v>468</v>
+      </c>
+      <c r="C157" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>470</v>
+      </c>
+      <c r="B158" t="s">
+        <v>471</v>
+      </c>
+      <c r="C158" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>473</v>
+      </c>
+      <c r="B159" t="s">
+        <v>474</v>
+      </c>
+      <c r="C159" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>476</v>
+      </c>
+      <c r="B160" t="s">
+        <v>477</v>
+      </c>
+      <c r="C160" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>479</v>
+      </c>
+      <c r="B161" t="s">
+        <v>480</v>
+      </c>
+      <c r="C161" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>482</v>
+      </c>
+      <c r="B162" t="s">
+        <v>483</v>
+      </c>
+      <c r="C162" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>485</v>
+      </c>
+      <c r="B163" t="s">
+        <v>486</v>
+      </c>
+      <c r="C163" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>488</v>
+      </c>
+      <c r="B164" t="s">
+        <v>489</v>
+      </c>
+      <c r="C164" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>491</v>
+      </c>
+      <c r="B165" t="s">
+        <v>492</v>
+      </c>
+      <c r="C165" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>494</v>
+      </c>
+      <c r="B166" t="s">
+        <v>495</v>
+      </c>
+      <c r="C166" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>497</v>
+      </c>
+      <c r="B167" t="s">
+        <v>498</v>
+      </c>
+      <c r="C167" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>500</v>
+      </c>
+      <c r="B168" t="s">
+        <v>501</v>
+      </c>
+      <c r="C168" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>503</v>
+      </c>
+      <c r="B169" t="s">
+        <v>504</v>
+      </c>
+      <c r="C169" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>506</v>
+      </c>
+      <c r="B170" t="s">
+        <v>507</v>
+      </c>
+      <c r="C170" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>509</v>
+      </c>
+      <c r="B171" t="s">
+        <v>510</v>
+      </c>
+      <c r="C171" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>512</v>
+      </c>
+      <c r="B172" t="s">
+        <v>513</v>
+      </c>
+      <c r="C172" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>515</v>
+      </c>
+      <c r="B173" t="s">
+        <v>516</v>
+      </c>
+      <c r="C173" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>518</v>
+      </c>
+      <c r="B174" t="s">
+        <v>519</v>
+      </c>
+      <c r="C174" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>521</v>
+      </c>
+      <c r="B175" t="s">
+        <v>522</v>
+      </c>
+      <c r="C175" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>524</v>
+      </c>
+      <c r="B176" t="s">
+        <v>525</v>
+      </c>
+      <c r="C176" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>527</v>
+      </c>
+      <c r="B177" t="s">
+        <v>528</v>
+      </c>
+      <c r="C177" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>530</v>
+      </c>
+      <c r="B178" t="s">
+        <v>531</v>
+      </c>
+      <c r="C178" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>533</v>
+      </c>
+      <c r="B179" t="s">
+        <v>534</v>
+      </c>
+      <c r="C179" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>536</v>
+      </c>
+      <c r="B180" t="s">
+        <v>537</v>
+      </c>
+      <c r="C180" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>539</v>
+      </c>
+      <c r="B181" t="s">
+        <v>540</v>
+      </c>
+      <c r="C181" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>542</v>
+      </c>
+      <c r="B182" t="s">
+        <v>543</v>
+      </c>
+      <c r="C182" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>545</v>
+      </c>
+      <c r="B183" t="s">
+        <v>546</v>
+      </c>
+      <c r="C183" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>548</v>
+      </c>
+      <c r="B184" t="s">
+        <v>549</v>
+      </c>
+      <c r="C184" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>551</v>
+      </c>
+      <c r="B185" t="s">
+        <v>552</v>
+      </c>
+      <c r="C185" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>554</v>
+      </c>
+      <c r="B186" t="s">
+        <v>555</v>
+      </c>
+      <c r="C186" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>557</v>
+      </c>
+      <c r="B187" t="s">
+        <v>558</v>
+      </c>
+      <c r="C187" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>560</v>
+      </c>
+      <c r="B188" t="s">
+        <v>561</v>
+      </c>
+      <c r="C188" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>563</v>
+      </c>
+      <c r="B189" t="s">
+        <v>564</v>
+      </c>
+      <c r="C189" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>566</v>
+      </c>
+      <c r="B190" t="s">
+        <v>567</v>
+      </c>
+      <c r="C190" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>569</v>
+      </c>
+      <c r="B191" t="s">
+        <v>570</v>
+      </c>
+      <c r="C191" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>572</v>
+      </c>
+      <c r="B192" t="s">
+        <v>573</v>
+      </c>
+      <c r="C192" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>575</v>
+      </c>
+      <c r="B193" t="s">
+        <v>576</v>
+      </c>
+      <c r="C193" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>578</v>
+      </c>
+      <c r="B194" t="s">
+        <v>579</v>
+      </c>
+      <c r="C194" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>581</v>
+      </c>
+      <c r="B195" t="s">
+        <v>582</v>
+      </c>
+      <c r="C195" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>584</v>
+      </c>
+      <c r="B196" t="s">
+        <v>585</v>
+      </c>
+      <c r="C196" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>587</v>
+      </c>
+      <c r="B197" t="s">
+        <v>588</v>
+      </c>
+      <c r="C197" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>590</v>
+      </c>
+      <c r="B198" t="s">
+        <v>591</v>
+      </c>
+      <c r="C198" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>593</v>
+      </c>
+      <c r="B199" t="s">
+        <v>594</v>
+      </c>
+      <c r="C199" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>596</v>
+      </c>
+      <c r="B200" t="s">
+        <v>597</v>
+      </c>
+      <c r="C200" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>599</v>
+      </c>
+      <c r="B201" t="s">
+        <v>600</v>
+      </c>
+      <c r="C201" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>602</v>
+      </c>
+      <c r="B202" t="s">
+        <v>603</v>
+      </c>
+      <c r="C202" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>605</v>
+      </c>
+      <c r="B203" t="s">
+        <v>606</v>
+      </c>
+      <c r="C203" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>608</v>
+      </c>
+      <c r="B204" t="s">
+        <v>609</v>
+      </c>
+      <c r="C204" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>611</v>
+      </c>
+      <c r="B205" t="s">
+        <v>612</v>
+      </c>
+      <c r="C205" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>614</v>
+      </c>
+      <c r="B206" t="s">
+        <v>615</v>
+      </c>
+      <c r="C206" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>617</v>
+      </c>
+      <c r="B207" t="s">
+        <v>618</v>
+      </c>
+      <c r="C207" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>620</v>
+      </c>
+      <c r="B208" t="s">
+        <v>621</v>
+      </c>
+      <c r="C208" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>623</v>
+      </c>
+      <c r="B209" t="s">
+        <v>624</v>
+      </c>
+      <c r="C209" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>626</v>
+      </c>
+      <c r="B210" t="s">
+        <v>627</v>
+      </c>
+      <c r="C210" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>629</v>
+      </c>
+      <c r="B211" t="s">
+        <v>630</v>
+      </c>
+      <c r="C211" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>632</v>
+      </c>
+      <c r="B212" t="s">
+        <v>633</v>
+      </c>
+      <c r="C212" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>635</v>
+      </c>
+      <c r="B213" t="s">
+        <v>636</v>
+      </c>
+      <c r="C213" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>638</v>
+      </c>
+      <c r="B214" t="s">
+        <v>639</v>
+      </c>
+      <c r="C214" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>641</v>
+      </c>
+      <c r="B215" t="s">
+        <v>642</v>
+      </c>
+      <c r="C215" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>644</v>
+      </c>
+      <c r="B216" t="s">
+        <v>645</v>
+      </c>
+      <c r="C216" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>647</v>
+      </c>
+      <c r="B217" t="s">
+        <v>648</v>
+      </c>
+      <c r="C217" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>650</v>
+      </c>
+      <c r="B218" t="s">
+        <v>651</v>
+      </c>
+      <c r="C218" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>653</v>
+      </c>
+      <c r="B219" t="s">
+        <v>654</v>
+      </c>
+      <c r="C219" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>656</v>
+      </c>
+      <c r="B220" t="s">
+        <v>657</v>
+      </c>
+      <c r="C220" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>659</v>
+      </c>
+      <c r="B221" t="s">
+        <v>660</v>
+      </c>
+      <c r="C221" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>662</v>
+      </c>
+      <c r="B222" t="s">
+        <v>663</v>
+      </c>
+      <c r="C222" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>665</v>
+      </c>
+      <c r="B223" t="s">
+        <v>666</v>
+      </c>
+      <c r="C223" t="s">
+        <v>667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>

--- a/custom_terms.xlsx
+++ b/custom_terms.xlsx
@@ -912,7 +912,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{AD434D0A-1DF6-4BFD-B31D-182FFE0870D8}">
+    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{EAB357E5-A241-44C6-9C66-41DE39CAD877}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -921,7 +921,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{6C1C25F5-422A-482F-9536-03B625A6A853}">
+    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{F8FE5F0E-0DD6-4BA4-9C60-EBE7B1A31797}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1154,8 +1154,8 @@
   <sheetPr/>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A75" sqref="$A2:$XFD75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81666666666667" defaultRowHeight="14.25" outlineLevelCol="2"/>
